--- a/results/meta.reportingSx.xlsx
+++ b/results/meta.reportingSx.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">sexF</t>
   </si>
   <si>
-    <t xml:space="preserve">hospital</t>
+    <t xml:space="preserve">hospitalization</t>
   </si>
   <si>
     <t xml:space="preserve">obesity</t>
@@ -449,16 +449,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.789324172897718</v>
+        <v>0.791553639890047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.542907674158492</v>
+        <v>0.544713876078496</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14758490177242</v>
+        <v>1.15025005298909</v>
       </c>
       <c r="E2" t="n">
-        <v>0.215341499830886</v>
+        <v>0.220243996383052</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -472,16 +472,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.789324172897718</v>
+        <v>0.791553639890047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.542907674158492</v>
+        <v>0.544713876078496</v>
       </c>
       <c r="D3" t="n">
-        <v>1.14758490177242</v>
+        <v>1.15025005298909</v>
       </c>
       <c r="E3" t="n">
-        <v>0.215341499830886</v>
+        <v>0.220243996383052</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -495,16 +495,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>1.20140436568595</v>
+        <v>1.17590569087182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.869924821907351</v>
+        <v>0.853232936515235</v>
       </c>
       <c r="D4" t="n">
-        <v>1.65919216642722</v>
+        <v>1.62060573923947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.265288863755077</v>
+        <v>0.322118970294909</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -518,16 +518,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>1.20140436568595</v>
+        <v>1.17590569087182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.869924821907351</v>
+        <v>0.853232936515235</v>
       </c>
       <c r="D5" t="n">
-        <v>1.65919216642722</v>
+        <v>1.62060573923947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.265288863755077</v>
+        <v>0.322118970294909</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -541,16 +541,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.702613171635215</v>
+        <v>0.652618605823782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.439220958894289</v>
+        <v>0.410398027554288</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12395653931923</v>
+        <v>1.0377999309732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.140896985515287</v>
+        <v>0.0713578922825299</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.663130043630576</v>
+        <v>0.540651528461983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.356763406773641</v>
+        <v>0.208769127046043</v>
       </c>
       <c r="D7" t="n">
-        <v>1.23258564756474</v>
+        <v>1.40013075383417</v>
       </c>
       <c r="E7" t="n">
-        <v>0.194013526360207</v>
+        <v>0.205256552294215</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -587,16 +587,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>1.73232430432196</v>
+        <v>1.75955124690558</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33991294196863</v>
+        <v>1.36731256894258</v>
       </c>
       <c r="D8" t="n">
-        <v>2.23965856388813</v>
+        <v>2.26431078073196</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000275675895792113</v>
+        <v>0.0000112761242510092</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -610,16 +610,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>1.73232430432196</v>
+        <v>1.75955124690558</v>
       </c>
       <c r="C9" t="n">
-        <v>1.33991294196863</v>
+        <v>1.36731256894258</v>
       </c>
       <c r="D9" t="n">
-        <v>2.23965856388813</v>
+        <v>2.26431078073196</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000275675895792113</v>
+        <v>0.0000112761242510092</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -633,16 +633,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>2.71102787066097</v>
+        <v>2.38428006634275</v>
       </c>
       <c r="C10" t="n">
-        <v>1.52612369157366</v>
+        <v>1.33123076043631</v>
       </c>
       <c r="D10" t="n">
-        <v>4.8159085374803</v>
+        <v>4.2703275823466</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000669167361993758</v>
+        <v>0.00347628384244798</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -656,16 +656,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>3.00427838864849</v>
+        <v>2.82913942258047</v>
       </c>
       <c r="C11" t="n">
-        <v>1.29722030872308</v>
+        <v>1.01539125688551</v>
       </c>
       <c r="D11" t="n">
-        <v>6.9577145653731</v>
+        <v>7.88270513274812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0102500899457047</v>
+        <v>0.0466814563946093</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -679,16 +679,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>1.21595765791435</v>
+        <v>1.23522359492981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.905035458505424</v>
+        <v>0.923044961427281</v>
       </c>
       <c r="D12" t="n">
-        <v>1.63369624023597</v>
+        <v>1.65298267498482</v>
       </c>
       <c r="E12" t="n">
-        <v>0.194381397889631</v>
+        <v>0.155249582350813</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -702,16 +702,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1.27958303749377</v>
+        <v>1.31014575020208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.835718461261949</v>
+        <v>0.839027990240883</v>
       </c>
       <c r="D13" t="n">
-        <v>1.959191792137</v>
+        <v>2.04579812203854</v>
       </c>
       <c r="E13" t="n">
-        <v>0.256679525774865</v>
+        <v>0.234807075717968</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -725,16 +725,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.854295446250158</v>
+        <v>0.759107210578397</v>
       </c>
       <c r="C14" t="n">
-        <v>0.545327604601598</v>
+        <v>0.496692237592494</v>
       </c>
       <c r="D14" t="n">
-        <v>1.33831609352867</v>
+        <v>1.16016259876581</v>
       </c>
       <c r="E14" t="n">
-        <v>0.491712337212867</v>
+        <v>0.202835223813879</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -748,16 +748,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.775365288214692</v>
+        <v>0.736793930719768</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212589388367113</v>
+        <v>0.191216873877524</v>
       </c>
       <c r="D15" t="n">
-        <v>2.82794609263411</v>
+        <v>2.83900309286092</v>
       </c>
       <c r="E15" t="n">
-        <v>0.699964358500361</v>
+        <v>0.657174665917759</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1.183925853486</v>
+        <v>1.2261750581091</v>
       </c>
       <c r="C16" t="n">
-        <v>0.892202749482997</v>
+        <v>0.924485735375529</v>
       </c>
       <c r="D16" t="n">
-        <v>1.57103352053642</v>
+        <v>1.62631527518175</v>
       </c>
       <c r="E16" t="n">
-        <v>0.242112091803714</v>
+        <v>0.157052445418671</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -794,16 +794,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1.20456476119514</v>
+        <v>1.43234956525731</v>
       </c>
       <c r="C17" t="n">
-        <v>0.865409870718653</v>
+        <v>0.7488732571201</v>
       </c>
       <c r="D17" t="n">
-        <v>1.67663475193343</v>
+        <v>2.73961616012652</v>
       </c>
       <c r="E17" t="n">
-        <v>0.269953915749953</v>
+        <v>0.277496804270797</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -817,16 +817,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0044703817727</v>
+        <v>1.91242621426818</v>
       </c>
       <c r="C18" t="n">
-        <v>1.42274277192036</v>
+        <v>1.36811032789183</v>
       </c>
       <c r="D18" t="n">
-        <v>2.82405336417967</v>
+        <v>2.67330342477269</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0000701071574214836</v>
+        <v>0.000148210621154981</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -840,16 +840,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0044703817727</v>
+        <v>1.91242621426818</v>
       </c>
       <c r="C19" t="n">
-        <v>1.42274277192036</v>
+        <v>1.36811032789183</v>
       </c>
       <c r="D19" t="n">
-        <v>2.82405336417967</v>
+        <v>2.67330342477269</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0000701071574214836</v>
+        <v>0.000148210621154981</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -863,16 +863,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.801082355698548</v>
+        <v>0.830041613541243</v>
       </c>
       <c r="C20" t="n">
-        <v>0.515255954485887</v>
+        <v>0.535954116942609</v>
       </c>
       <c r="D20" t="n">
-        <v>1.24546438527206</v>
+        <v>1.28550011732427</v>
       </c>
       <c r="E20" t="n">
-        <v>0.324598569433631</v>
+        <v>0.403911816771143</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -886,16 +886,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.618619888822295</v>
+        <v>0.679018477936325</v>
       </c>
       <c r="C21" t="n">
-        <v>0.181924886311548</v>
+        <v>0.235288510134885</v>
       </c>
       <c r="D21" t="n">
-        <v>2.10356358937692</v>
+        <v>1.95957759737034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.441833273166395</v>
+        <v>0.474065245074512</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -909,16 +909,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.913008781132764</v>
+        <v>0.89088170270797</v>
       </c>
       <c r="C22" t="n">
-        <v>0.685015740029843</v>
+        <v>0.671058929987273</v>
       </c>
       <c r="D22" t="n">
-        <v>1.21688449726603</v>
+        <v>1.18271313107316</v>
       </c>
       <c r="E22" t="n">
-        <v>0.53469053241529</v>
+        <v>0.424165690284772</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -932,16 +932,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>0.855082691990304</v>
+        <v>0.801944270932081</v>
       </c>
       <c r="C23" t="n">
-        <v>0.544627326427927</v>
+        <v>0.465583715381282</v>
       </c>
       <c r="D23" t="n">
-        <v>1.34250775651843</v>
+        <v>1.3813082211308</v>
       </c>
       <c r="E23" t="n">
-        <v>0.496363113099995</v>
+        <v>0.426274771649345</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -955,16 +955,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>1.12889535488589</v>
+        <v>1.10763325901306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.811747481538473</v>
+        <v>0.800500968756255</v>
       </c>
       <c r="D24" t="n">
-        <v>1.56995217264808</v>
+        <v>1.5326045618384</v>
       </c>
       <c r="E24" t="n">
-        <v>0.47121659000861</v>
+        <v>0.53725118112203</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -978,16 +978,16 @@
         <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>1.12889535488589</v>
+        <v>1.10763325901306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.811747481538473</v>
+        <v>0.800500968756255</v>
       </c>
       <c r="D25" t="n">
-        <v>1.56995217264808</v>
+        <v>1.5326045618384</v>
       </c>
       <c r="E25" t="n">
-        <v>0.47121659000861</v>
+        <v>0.53725118112203</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1001,16 +1001,16 @@
         <v>22</v>
       </c>
       <c r="B26" t="n">
-        <v>1.94125363844356</v>
+        <v>1.88306221519026</v>
       </c>
       <c r="C26" t="n">
-        <v>1.21074238332359</v>
+        <v>1.18476260628561</v>
       </c>
       <c r="D26" t="n">
-        <v>3.11252479526289</v>
+        <v>2.99293992523464</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00588921258848037</v>
+        <v>0.00742590492813735</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1024,16 +1024,16 @@
         <v>22</v>
       </c>
       <c r="B27" t="n">
-        <v>1.91872157056708</v>
+        <v>1.76330450420688</v>
       </c>
       <c r="C27" t="n">
-        <v>1.15887016845317</v>
+        <v>0.920385648434577</v>
       </c>
       <c r="D27" t="n">
-        <v>3.17679457593888</v>
+        <v>3.37819562902199</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0113055506560639</v>
+        <v>0.0872911680560572</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1047,16 +1047,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>1.10068278565203</v>
+        <v>0.960939933341222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.728599133146588</v>
+        <v>0.681479039804008</v>
       </c>
       <c r="D28" t="n">
-        <v>1.66278346969563</v>
+        <v>1.35500213734439</v>
       </c>
       <c r="E28" t="n">
-        <v>0.648577679909319</v>
+        <v>0.820234019492372</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1070,16 +1070,16 @@
         <v>23</v>
       </c>
       <c r="B29" t="n">
-        <v>1.10068278565203</v>
+        <v>0.960939933341222</v>
       </c>
       <c r="C29" t="n">
-        <v>0.728599133146588</v>
+        <v>0.681479039804008</v>
       </c>
       <c r="D29" t="n">
-        <v>1.66278346969563</v>
+        <v>1.35500213734439</v>
       </c>
       <c r="E29" t="n">
-        <v>0.648577679909319</v>
+        <v>0.820234019492372</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1093,16 +1093,16 @@
         <v>24</v>
       </c>
       <c r="B30" t="n">
-        <v>0.795344002838971</v>
+        <v>0.750723047364077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.443477176721831</v>
+        <v>0.239106078921874</v>
       </c>
       <c r="D30" t="n">
-        <v>1.42639151698374</v>
+        <v>2.35705046222499</v>
       </c>
       <c r="E30" t="n">
-        <v>0.442301054785114</v>
+        <v>0.623308816288564</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1116,16 +1116,16 @@
         <v>24</v>
       </c>
       <c r="B31" t="n">
-        <v>0.795344002838971</v>
+        <v>0.750723047364077</v>
       </c>
       <c r="C31" t="n">
-        <v>0.443477176721831</v>
+        <v>0.239106078921874</v>
       </c>
       <c r="D31" t="n">
-        <v>1.42639151698374</v>
+        <v>2.35705046222499</v>
       </c>
       <c r="E31" t="n">
-        <v>0.442301054785114</v>
+        <v>0.623308816288564</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1139,16 +1139,16 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>0.92049870591264</v>
+        <v>0.920966330946074</v>
       </c>
       <c r="C32" t="n">
-        <v>0.843594871454206</v>
+        <v>0.844102724595429</v>
       </c>
       <c r="D32" t="n">
-        <v>1.00441325126387</v>
+        <v>1.00482910198258</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0627390705749297</v>
+        <v>0.0640803853832058</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1162,16 +1162,16 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>0.92049870591264</v>
+        <v>0.920966330946074</v>
       </c>
       <c r="C33" t="n">
-        <v>0.843594871454206</v>
+        <v>0.844102724595429</v>
       </c>
       <c r="D33" t="n">
-        <v>1.00441325126387</v>
+        <v>1.00482910198258</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0627390705749297</v>
+        <v>0.0640803853832058</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1185,16 +1185,16 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>1.2472793710384</v>
+        <v>1.2320294934592</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1283578853842</v>
+        <v>1.11496603757671</v>
       </c>
       <c r="D34" t="n">
-        <v>1.37873439763149</v>
+        <v>1.36138377456981</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0000154531723195431</v>
+        <v>0.00004197756803543</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1208,16 +1208,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>1.2472793710384</v>
+        <v>0.970069601018045</v>
       </c>
       <c r="C35" t="n">
-        <v>1.1283578853842</v>
+        <v>0.494696498112105</v>
       </c>
       <c r="D35" t="n">
-        <v>1.37873439763149</v>
+        <v>1.90224720492373</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0000154531723195431</v>
+        <v>0.92952607798808</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1231,16 +1231,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>0.948251402265134</v>
+        <v>0.952198018267407</v>
       </c>
       <c r="C36" t="n">
-        <v>0.851908562016802</v>
+        <v>0.855456359143452</v>
       </c>
       <c r="D36" t="n">
-        <v>1.05548971097212</v>
+        <v>1.0598799766948</v>
       </c>
       <c r="E36" t="n">
-        <v>0.331034883309339</v>
+        <v>0.370213473008262</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1254,16 +1254,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>0.948251402265134</v>
+        <v>1.47529642230488</v>
       </c>
       <c r="C37" t="n">
-        <v>0.851908562016802</v>
+        <v>0.416417326385347</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05548971097212</v>
+        <v>5.22672664117604</v>
       </c>
       <c r="E37" t="n">
-        <v>0.331034883309339</v>
+        <v>0.546824828942446</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1277,16 +1277,16 @@
         <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>1.34697125058793</v>
+        <v>1.34038208854295</v>
       </c>
       <c r="C38" t="n">
-        <v>1.25562710536788</v>
+        <v>1.24986119657368</v>
       </c>
       <c r="D38" t="n">
-        <v>1.44496048401156</v>
+        <v>1.4374589340096</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0000000000000000930357595996018</v>
+        <v>0.000000000000000218066549416987</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1300,16 +1300,16 @@
         <v>13</v>
       </c>
       <c r="B39" t="n">
-        <v>1.34697125058793</v>
+        <v>1.34038208854295</v>
       </c>
       <c r="C39" t="n">
-        <v>1.25562710536788</v>
+        <v>1.24986119657368</v>
       </c>
       <c r="D39" t="n">
-        <v>1.44496048401156</v>
+        <v>1.4374589340096</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0000000000000000930357595996018</v>
+        <v>0.000000000000000218066549416987</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1323,16 +1323,16 @@
         <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>2.92626910990562</v>
+        <v>2.32546592846306</v>
       </c>
       <c r="C40" t="n">
-        <v>2.30038870628426</v>
+        <v>1.84258305116452</v>
       </c>
       <c r="D40" t="n">
-        <v>3.72243650831491</v>
+        <v>2.9348971711342</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00000000000000000223154402878468</v>
+        <v>0.00000000000119016936914565</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -1346,16 +1346,16 @@
         <v>14</v>
       </c>
       <c r="B41" t="n">
-        <v>11.4264260626457</v>
+        <v>2.32546592846306</v>
       </c>
       <c r="C41" t="n">
-        <v>0.454497445361025</v>
+        <v>1.84258305116452</v>
       </c>
       <c r="D41" t="n">
-        <v>287.269409097331</v>
+        <v>2.9348971711342</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138700779587199</v>
+        <v>0.00000000000119016936914565</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1369,16 +1369,16 @@
         <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>1.18524099464451</v>
+        <v>1.18280738514687</v>
       </c>
       <c r="C42" t="n">
-        <v>1.09526199634602</v>
+        <v>1.09337256629411</v>
       </c>
       <c r="D42" t="n">
-        <v>1.28261203262102</v>
+        <v>1.27955772212201</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0000245559459225556</v>
+        <v>0.0000284855001753619</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1392,16 +1392,16 @@
         <v>15</v>
       </c>
       <c r="B43" t="n">
-        <v>1.18524099464451</v>
+        <v>1.18280738514687</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09526199634602</v>
+        <v>1.09337256629411</v>
       </c>
       <c r="D43" t="n">
-        <v>1.28261203262102</v>
+        <v>1.27955772212201</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0000245559459225556</v>
+        <v>0.0000284855001753619</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1415,16 +1415,16 @@
         <v>16</v>
       </c>
       <c r="B44" t="n">
-        <v>1.02921384536804</v>
+        <v>1.04807518240831</v>
       </c>
       <c r="C44" t="n">
-        <v>0.883154059768829</v>
+        <v>0.900000675220667</v>
       </c>
       <c r="D44" t="n">
-        <v>1.19942962134437</v>
+        <v>1.22051195985034</v>
       </c>
       <c r="E44" t="n">
-        <v>0.71231334273498</v>
+        <v>0.545702106877141</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -1438,16 +1438,16 @@
         <v>16</v>
       </c>
       <c r="B45" t="n">
-        <v>1.02921384536804</v>
+        <v>1.04807518240831</v>
       </c>
       <c r="C45" t="n">
-        <v>0.883154059768829</v>
+        <v>0.900000675220667</v>
       </c>
       <c r="D45" t="n">
-        <v>1.19942962134437</v>
+        <v>1.22051195985034</v>
       </c>
       <c r="E45" t="n">
-        <v>0.71231334273498</v>
+        <v>0.545702106877141</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1461,16 +1461,16 @@
         <v>17</v>
       </c>
       <c r="B46" t="n">
-        <v>1.16277782983882</v>
+        <v>1.16174131831819</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0812898791563</v>
+        <v>1.08048724413912</v>
       </c>
       <c r="D46" t="n">
-        <v>1.25040685909281</v>
+        <v>1.2491058066706</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0000473724641244594</v>
+        <v>0.0000506748156684271</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -1484,16 +1484,16 @@
         <v>17</v>
       </c>
       <c r="B47" t="n">
-        <v>1.16277782983882</v>
+        <v>1.16174131831819</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0812898791563</v>
+        <v>1.08048724413912</v>
       </c>
       <c r="D47" t="n">
-        <v>1.25040685909281</v>
+        <v>1.2491058066706</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0000473724641244594</v>
+        <v>0.0000506748156684271</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1507,16 +1507,16 @@
         <v>18</v>
       </c>
       <c r="B48" t="n">
-        <v>1.396528930051</v>
+        <v>1.4001764433091</v>
       </c>
       <c r="C48" t="n">
-        <v>1.27212390543585</v>
+        <v>1.27566525150334</v>
       </c>
       <c r="D48" t="n">
-        <v>1.53309991592463</v>
+        <v>1.53684053875993</v>
       </c>
       <c r="E48" t="n">
-        <v>0.00000000000228283338028152</v>
+        <v>0.00000000000140221932419198</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
@@ -1530,16 +1530,16 @@
         <v>18</v>
       </c>
       <c r="B49" t="n">
-        <v>1.396528930051</v>
+        <v>1.4001764433091</v>
       </c>
       <c r="C49" t="n">
-        <v>1.27212390543585</v>
+        <v>1.27566525150334</v>
       </c>
       <c r="D49" t="n">
-        <v>1.53309991592463</v>
+        <v>1.53684053875993</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00000000000228283338028152</v>
+        <v>0.00000000000140221932419198</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1553,16 +1553,16 @@
         <v>19</v>
       </c>
       <c r="B50" t="n">
-        <v>1.69234685184182</v>
+        <v>1.68459690530069</v>
       </c>
       <c r="C50" t="n">
-        <v>1.49337885263313</v>
+        <v>1.48675547545454</v>
       </c>
       <c r="D50" t="n">
-        <v>1.91782404169513</v>
+        <v>1.90876494500958</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00000000000000016598465210205</v>
+        <v>0.000000000000000279268875254098</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
@@ -1576,16 +1576,16 @@
         <v>19</v>
       </c>
       <c r="B51" t="n">
-        <v>1.69234685184182</v>
+        <v>1.68459690530069</v>
       </c>
       <c r="C51" t="n">
-        <v>1.49337885263313</v>
+        <v>1.48675547545454</v>
       </c>
       <c r="D51" t="n">
-        <v>1.91782404169513</v>
+        <v>1.90876494500958</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00000000000000016598465210205</v>
+        <v>0.000000000000000279268875254098</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -1599,16 +1599,16 @@
         <v>20</v>
       </c>
       <c r="B52" t="n">
-        <v>1.17598585906212</v>
+        <v>1.17934798943779</v>
       </c>
       <c r="C52" t="n">
-        <v>1.09110313642071</v>
+        <v>1.09442865618952</v>
       </c>
       <c r="D52" t="n">
-        <v>1.26747206066215</v>
+        <v>1.2708564165649</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0000222552011430556</v>
+        <v>0.0000151471402552921</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
@@ -1622,16 +1622,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="n">
-        <v>1.17598585906212</v>
+        <v>1.17934798943779</v>
       </c>
       <c r="C53" t="n">
-        <v>1.09110313642071</v>
+        <v>1.09442865618952</v>
       </c>
       <c r="D53" t="n">
-        <v>1.26747206066215</v>
+        <v>1.2708564165649</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0000222552011430556</v>
+        <v>0.0000151471402552921</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -1645,16 +1645,16 @@
         <v>21</v>
       </c>
       <c r="B54" t="n">
-        <v>1.18196434559964</v>
+        <v>1.18569086939463</v>
       </c>
       <c r="C54" t="n">
-        <v>1.08346136882487</v>
+        <v>1.08703594037222</v>
       </c>
       <c r="D54" t="n">
-        <v>1.2894227283655</v>
+        <v>1.2932993156458</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000166213331597952</v>
+        <v>0.000121613448588339</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
@@ -1668,16 +1668,16 @@
         <v>21</v>
       </c>
       <c r="B55" t="n">
-        <v>1.18196434559964</v>
+        <v>1.18569086939463</v>
       </c>
       <c r="C55" t="n">
-        <v>1.08346136882487</v>
+        <v>1.08703594037222</v>
       </c>
       <c r="D55" t="n">
-        <v>1.2894227283655</v>
+        <v>1.2932993156458</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000166213331597952</v>
+        <v>0.000121613448588339</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -1691,16 +1691,16 @@
         <v>22</v>
       </c>
       <c r="B56" t="n">
-        <v>1.74011300188856</v>
+        <v>1.72157241588813</v>
       </c>
       <c r="C56" t="n">
-        <v>1.54390565824199</v>
+        <v>1.52831710349628</v>
       </c>
       <c r="D56" t="n">
-        <v>1.96125536763012</v>
+        <v>1.93926481380512</v>
       </c>
       <c r="E56" t="n">
-        <v>0.00000000000000000011335346990233</v>
+        <v>0.000000000000000000382325510012666</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -1714,16 +1714,16 @@
         <v>22</v>
       </c>
       <c r="B57" t="n">
-        <v>1.16368694154651</v>
+        <v>1.08041961709344</v>
       </c>
       <c r="C57" t="n">
-        <v>0.40171702574021</v>
+        <v>0.35919295047492</v>
       </c>
       <c r="D57" t="n">
-        <v>3.37094823260396</v>
+        <v>3.24980361517939</v>
       </c>
       <c r="E57" t="n">
-        <v>0.779975754541648</v>
+        <v>0.890505661396735</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -1737,16 +1737,16 @@
         <v>23</v>
       </c>
       <c r="B58" t="n">
-        <v>1.06722731240587</v>
+        <v>1.08081135816109</v>
       </c>
       <c r="C58" t="n">
-        <v>0.956368772735674</v>
+        <v>0.991404223630089</v>
       </c>
       <c r="D58" t="n">
-        <v>1.19093614180547</v>
+        <v>1.1782814356517</v>
       </c>
       <c r="E58" t="n">
-        <v>0.244939558370406</v>
+        <v>0.0777314675964367</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
@@ -1760,16 +1760,16 @@
         <v>23</v>
       </c>
       <c r="B59" t="n">
-        <v>1.06722731240587</v>
+        <v>1.08081135816109</v>
       </c>
       <c r="C59" t="n">
-        <v>0.956368772735674</v>
+        <v>0.991404223630089</v>
       </c>
       <c r="D59" t="n">
-        <v>1.19093614180547</v>
+        <v>1.1782814356517</v>
       </c>
       <c r="E59" t="n">
-        <v>0.244939558370406</v>
+        <v>0.0777314675964367</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -1783,16 +1783,16 @@
         <v>24</v>
       </c>
       <c r="B60" t="n">
-        <v>1.02408186758849</v>
+        <v>0.809738955456322</v>
       </c>
       <c r="C60" t="n">
-        <v>0.882415303133921</v>
+        <v>0.329400435431396</v>
       </c>
       <c r="D60" t="n">
-        <v>1.18849216213601</v>
+        <v>1.99051702868818</v>
       </c>
       <c r="E60" t="n">
-        <v>0.754086816204048</v>
+        <v>0.645599212166183</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -1806,16 +1806,16 @@
         <v>24</v>
       </c>
       <c r="B61" t="n">
-        <v>1.02408186758849</v>
+        <v>0.809738955456322</v>
       </c>
       <c r="C61" t="n">
-        <v>0.882415303133921</v>
+        <v>0.329400435431396</v>
       </c>
       <c r="D61" t="n">
-        <v>1.18849216213601</v>
+        <v>1.99051702868818</v>
       </c>
       <c r="E61" t="n">
-        <v>0.754086816204048</v>
+        <v>0.645599212166183</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
